--- a/tuckshop.xlsx
+++ b/tuckshop.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awhiskin/tuckshop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.whiskin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460"/>
   </bookViews>
   <sheets>
-    <sheet name="TuckshopPrimary" sheetId="1" r:id="rId1"/>
+    <sheet name="tuckshop" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Form</t>
   </si>
@@ -80,160 +72,383 @@
     <t>Lunch - Hot Food</t>
   </si>
   <si>
-    <t>Morning Tea - Snack</t>
-  </si>
-  <si>
     <t xml:space="preserve">Special instructions </t>
   </si>
   <si>
-    <t>Tuckshop Primary</t>
+    <t>Tuckshop Pre-Primary</t>
+  </si>
+  <si>
+    <t>27/02/2017 | 14:24</t>
   </si>
   <si>
     <t>Anonymous</t>
   </si>
   <si>
-    <t>26/02/2017 | 14:25</t>
-  </si>
-  <si>
-    <t>197320016988:YJkKulTD</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Kid</t>
-  </si>
-  <si>
-    <t>PM</t>
+    <t>197320018610:MehQJyAP</t>
+  </si>
+  <si>
+    <t>PrePrimary</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Kookaburra - Edna</t>
   </si>
   <si>
     <t>Parent</t>
   </si>
   <si>
-    <t>Parent@example.com</t>
-  </si>
-  <si>
-    <t>White High Fibre Bread , Cheese, Chicken Breast - Sliced</t>
-  </si>
-  <si>
-    <t>Orange Juice, Apple Juice</t>
-  </si>
-  <si>
-    <t>Apple, Banana</t>
-  </si>
-  <si>
-    <t>Lemonade Ice Block, Fruit Cup (Stewed fruit natural juice)</t>
-  </si>
-  <si>
-    <t>Hot Dog without Sauce, Fresh Corn 1/2 Cob</t>
+    <t>parent@example.com</t>
+  </si>
+  <si>
+    <t>White High Fibre Bread , Vegemite</t>
+  </si>
+  <si>
+    <t>Orange Juice, Chocolate Milk</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>26/02/2017 | 15:08</t>
-  </si>
-  <si>
-    <t>197320016988:YMYUGjWP</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>parent@example.com</t>
-  </si>
-  <si>
-    <t>TEST SANDWHICH</t>
-  </si>
-  <si>
-    <t>TEST DRINK 1, TEST DRINK 2</t>
-  </si>
-  <si>
-    <t>TEST FRUIT</t>
-  </si>
-  <si>
-    <t>TEST OTHER</t>
-  </si>
-  <si>
-    <t>TEST SUSHI</t>
-  </si>
-  <si>
-    <t>TEST HOT FOOD</t>
-  </si>
-  <si>
-    <t>TEST SNACK 1, TEST SNACK 2</t>
-  </si>
-  <si>
-    <t>TEST ORDER 2</t>
-  </si>
-  <si>
-    <t>26/02/2017 | 15:10</t>
-  </si>
-  <si>
-    <t>197320016988:vybbYiiW</t>
-  </si>
-  <si>
-    <t>TEST ORDER 3</t>
-  </si>
-  <si>
-    <t>26/02/2017 | 17:11</t>
-  </si>
-  <si>
-    <t>197320016988:AjdQkFsS</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Whiskin</t>
-  </si>
-  <si>
-    <t>PPP</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>mark@example.com</t>
-  </si>
-  <si>
-    <t>Wholemeal Bread, Cheese, Ham - Sliced, Tomato, Lettuce</t>
-  </si>
-  <si>
-    <t>Apple Juice, Strawberry Milk</t>
-  </si>
-  <si>
-    <t>Jelly Cup with fruit pieces, Petit Miam (Assorted flavours)</t>
-  </si>
-  <si>
-    <t>Teriyaki Chicken and Avocado</t>
-  </si>
-  <si>
-    <t>Cheese &amp; Crackers, Apple</t>
+    <t>Lemonade Ice Block, Dried Fruit Box (Small box), Fruit Cup (Stewed fruit natural juice), Jelly Cup with fruit pieces, Petit Miam (Assorted flavours)</t>
+  </si>
+  <si>
+    <t>Cooked Tuna and Avocado, Cooked Tuna and Cucumber</t>
+  </si>
+  <si>
+    <t>Hot Dog without Sauce, Hot Dog with Sauce, Fresh Corn 1/2 Cob, Slice of Pizza - Vegetarian, Slice of Pizza - Cheese &amp; Tomato</t>
+  </si>
+  <si>
+    <t>This kid is allergic to a lot of stuff:
+- Lactose
+- Milk
+- Cheese
+- Dust</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,21 +456,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -307,9 +717,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -337,14 +747,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -372,6 +799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,15 +968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A2:XFD3 A5:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,288 +1029,61 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2">
-        <v>1186076</v>
+        <v>1190615</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
       <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>1186084</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>1186085</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1186086</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>1186172</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tuckshop.xlsx
+++ b/tuckshop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.whiskin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.whiskin\workspace\tuckshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,11 +120,7 @@
     <t>Hot Dog without Sauce, Hot Dog with Sauce, Fresh Corn 1/2 Cob, Slice of Pizza - Vegetarian, Slice of Pizza - Cheese &amp; Tomato</t>
   </si>
   <si>
-    <t>This kid is allergic to a lot of stuff:
-- Lactose
-- Milk
-- Cheese
-- Dust</t>
+    <t>SPECIAL</t>
   </si>
 </sst>
 </file>
@@ -970,9 +966,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="52.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
